--- a/medicine/Psychotrope/John_Labatt/John_Labatt.xlsx
+++ b/medicine/Psychotrope/John_Labatt/John_Labatt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Labatt (né le 11 décembre 1838, décédé le 27 avril 1915) est un homme d'affaires et brasseur canadien.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Labatt naît dans le canton de Westminster, près de London dans le Haut-Canada. Il est le troisième fils de John Kinder Labatt, fondateur de la brasserie Labatt.
 Lors du décès de son père en 1866, John assume le contrôle de l'entreprise qui, sous sa supervision, devient l'une des brasseries les plus importantes au Canada. Il se spécialise dans l'India Pale Ale.
-Après sa mort, la compagnie est exploitée par ses neuf enfants, alors que ses fils John Sackville Labatt (en) et Hugh Francis Labatt assument les rôles administratifs[1].
+Après sa mort, la compagnie est exploitée par ses neuf enfants, alors que ses fils John Sackville Labatt (en) et Hugh Francis Labatt assument les rôles administratifs.
 </t>
         </is>
       </c>
